--- a/model_tables.xlsx
+++ b/model_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EF9EC1-C111-45FF-B787-D79D25DB95AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A84B4B-4EB7-487B-9ECD-A0A460E70EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="-12960" windowWidth="21600" windowHeight="11370" xr2:uid="{CBDA15D8-7D84-436E-85F8-C8AD9D3A469B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{CBDA15D8-7D84-436E-85F8-C8AD9D3A469B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,18 +472,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.4609375" customWidth="1"/>
-    <col min="2" max="2" width="24.3828125" customWidth="1"/>
-    <col min="3" max="3" width="38.07421875" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="3" max="3" width="38.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -493,7 +493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -515,7 +515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -526,22 +526,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>

--- a/model_tables.xlsx
+++ b/model_tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SylwiaSemeniuk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A84B4B-4EB7-487B-9ECD-A0A460E70EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AF0AA8-8A2D-4550-A51B-C5D3424D90F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{CBDA15D8-7D84-436E-85F8-C8AD9D3A469B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>schema</t>
   </si>
@@ -50,28 +50,25 @@
     <t>database</t>
   </si>
   <si>
-    <t>reports</t>
-  </si>
-  <si>
-    <t>tradedesk</t>
-  </si>
-  <si>
-    <t>tradedesk_reference_nc</t>
-  </si>
-  <si>
     <t>data_warehouse</t>
   </si>
   <si>
-    <t>stage</t>
-  </si>
-  <si>
-    <t>innovid_v1</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>facebook_monthly_ad</t>
+    <t>schema1</t>
+  </si>
+  <si>
+    <t>schema2</t>
+  </si>
+  <si>
+    <t>my_database</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>kpi_report_q1</t>
+  </si>
+  <si>
+    <t>kpi_attributes</t>
   </si>
 </sst>
 </file>
@@ -472,7 +469,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,35 +492,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
